--- a/src/Web/static/reports/CompletionCertificateTemplate2.xlsx
+++ b/src/Web/static/reports/CompletionCertificateTemplate2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\git\Luxena.Travel\src\Web\static\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D3D671-E36B-4E3B-9290-311C775C4BDC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22104" windowHeight="10644"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22110" windowHeight="10650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Рахунок-фактура" sheetId="1" r:id="rId1"/>
@@ -150,13 +151,13 @@
     <t>________________</t>
   </si>
   <si>
-    <t>[[Customer]]</t>
+    <t>[[CustomerSignature]]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -478,70 +479,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -562,6 +502,67 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -842,27 +843,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="27.5546875" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
     <col min="4" max="4" width="4" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="5.21875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="2" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="10.77734375" customWidth="1"/>
-    <col min="8" max="10" width="8.77734375" customWidth="1"/>
-    <col min="11" max="11" width="10.77734375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="10" width="8.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -870,117 +871,117 @@
       <c r="D1" s="22"/>
       <c r="E1" s="22"/>
       <c r="F1" s="22"/>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
       <c r="K1" s="22"/>
     </row>
-    <row r="2" spans="1:11" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="26" t="s">
+    <row r="2" spans="1:11" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="H2" s="26" t="s">
+      <c r="C2" s="46"/>
+      <c r="H2" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-    </row>
-    <row r="7" spans="1:11" ht="25.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="31" t="s">
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+    </row>
+    <row r="7" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="31" t="s">
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-    </row>
-    <row r="11" spans="1:11" s="10" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+    </row>
+    <row r="11" spans="1:11" s="10" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="29" t="s">
+      <c r="C11" s="57"/>
+      <c r="D11" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="H11" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="33"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="35" t="s">
+      <c r="I11" s="53"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="55" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
+    <row r="12" spans="1:11" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="50"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
       <c r="H12" s="18" t="s">
         <v>21</v>
       </c>
@@ -990,16 +991,16 @@
       <c r="J12" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="K12" s="36"/>
-    </row>
-    <row r="13" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K12" s="56"/>
+    </row>
+    <row r="13" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="40"/>
+      <c r="C13" s="42"/>
       <c r="D13" s="13" t="s">
         <v>7</v>
       </c>
@@ -1025,7 +1026,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1038,12 +1039,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>32</v>
       </c>
@@ -1054,12 +1055,12 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="24" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -1068,99 +1069,99 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G24" s="11"/>
     </row>
-    <row r="25" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="43" t="s">
+    <row r="25" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="54" t="s">
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
       <c r="K25" s="11"/>
     </row>
-    <row r="26" spans="1:11" s="49" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="46" t="s">
+    <row r="26" spans="1:11" s="28" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55" t="s">
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="50"/>
-    </row>
-    <row r="27" spans="1:11" s="49" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="47" t="s">
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="29"/>
+    </row>
+    <row r="27" spans="1:11" s="28" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="47"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="42" t="s">
+      <c r="B27" s="38"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="50"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="47"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-    </row>
-    <row r="29" spans="1:11" s="51" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="56"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-    </row>
-    <row r="30" spans="1:11" s="23" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="45"/>
-      <c r="B30" s="41" t="s">
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="29"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="38"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+    </row>
+    <row r="29" spans="1:11" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+    </row>
+    <row r="30" spans="1:11" s="23" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="27"/>
+      <c r="B30" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="41"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-    </row>
-    <row r="32" spans="1:11" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="C30" s="43"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+    </row>
+    <row r="32" spans="1:11" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="25" t="s">
         <v>18</v>
       </c>
@@ -1177,13 +1178,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A27:B28"/>
-    <mergeCell ref="C27:E28"/>
-    <mergeCell ref="H27:J28"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="H2:K2"/>
@@ -1199,6 +1193,13 @@
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A27:B28"/>
+    <mergeCell ref="C27:E28"/>
+    <mergeCell ref="H27:J28"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
